--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3776604.436479264</v>
+        <v>3772271.951658572</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7714591.37065021</v>
+        <v>7714591.370650208</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>397.0475158885861</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>94.91982427513231</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>128.7282531589278</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>333.7356466614543</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>338.2584895448977</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>77.28341792547805</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>60.46179076613138</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>286.3136128162762</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>11.90975838011589</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>234.4970761400739</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>45.31583743121393</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>119.6760079449695</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>66.12869588327256</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>178.8757728051418</v>
       </c>
     </row>
     <row r="17">
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>126.1348013633905</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>212.4076860934771</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>105.7906564314211</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>99.17988875728673</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>146.7151441592118</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>98.00068573248018</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>159.9699727254184</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>27.34574348918484</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>127.0078463455651</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>184.61419076404</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.28101103997115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>126.4267013134148</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2050.019976259699</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>2050.019976259699</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D2" t="n">
-        <v>1691.754277652948</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E2" t="n">
-        <v>1305.966025054704</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="F2" t="n">
-        <v>894.9801202650963</v>
+        <v>782.1957986415193</v>
       </c>
       <c r="G2" t="n">
-        <v>477.0163121632831</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>149.821592199286</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>2050.019976259699</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>331.8846139471291</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2355.473849053679</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.008090792599</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>620.6480065494723</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>620.6480065494723</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>393.339819218074</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>393.339819218074</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>393.339819218074</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>393.339819218074</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>393.339819218074</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.339819218074</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1686.741202187451</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674653</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674653</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2076.880534163262</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1686.741202187451</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036447</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406187</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406187</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406187</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951866</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>996.5276398439756</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>827.5914569160688</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>677.474817503733</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1398.968683817745</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1178.176104674215</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.485273605118</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2206.395003844405</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1621.58919134635</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1332.172021309389</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5594,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
@@ -5761,13 +5761,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>888.6771326738537</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>738.560493261518</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6068,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556945</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>417.7969033733013</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E28" t="n">
-        <v>416.6057892068301</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F28" t="n">
-        <v>416.6057892068301</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6554,16 +6554,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2883.976121413757</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>2883.976121413757</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>2733.859482001421</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.19996817779</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279773</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>3065.624586243996</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1949.83911739012</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1695.154629184233</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3278.063798229818</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>3905.661761784424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3160.179968880559</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>3031.88921499615</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4623.787448650995</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4334.712221995193</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>4080.027733789307</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3790.610563752346</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3562.621012854329</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3341.828433710799</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,19 +7171,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3045.530642171613</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3965.37840708036</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3675.9612370434</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3447.971686145383</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3227.179107001853</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>989.3306680894883</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>820.3944851615814</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>670.2778457492457</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>522.3647521668526</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>375.4748046689422</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1170.979132919728</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611859</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,10 +8072,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>20.61870490125435</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>186.0089474405555</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>39.708880546953</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>41.11201973523735</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>13.30196929556007</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>40.6433062151481</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>46.24115926564451</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>139.4693302300323</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>67.52345255978867</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>58.61468062667635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>258.8387309000593</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>40.23897475306269</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>67.52345255978804</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>92.15795203868002</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
+        <v>779989.6813710687</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710688</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055057</v>
-      </c>
       <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055062</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577084</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.233536763689838e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26426,10 +26426,10 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>5067.592601670476</v>
+      </c>
+      <c r="F4" t="n">
         <v>5067.592601670437</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5067.592601670438</v>
       </c>
       <c r="G4" t="n">
         <v>5067.592601670437</v>
@@ -26438,19 +26438,19 @@
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="M4" t="n">
         <v>5067.592601670437</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5067.592601670387</v>
       </c>
       <c r="N4" t="n">
         <v>5067.592601670437</v>
@@ -26459,7 +26459,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93901.78183461653</v>
+        <v>-93901.78183461635</v>
       </c>
       <c r="C6" t="n">
-        <v>496066.0973799279</v>
+        <v>496066.0973799278</v>
       </c>
       <c r="D6" t="n">
         <v>496066.0973799278</v>
       </c>
       <c r="E6" t="n">
-        <v>-283773.63047778</v>
+        <v>-284121.0097321373</v>
       </c>
       <c r="F6" t="n">
-        <v>660599.1472799284</v>
+        <v>660251.768025571</v>
       </c>
       <c r="G6" t="n">
-        <v>660599.1472799282</v>
+        <v>660251.7680255715</v>
       </c>
       <c r="H6" t="n">
-        <v>660599.1472799286</v>
+        <v>660251.7680255717</v>
       </c>
       <c r="I6" t="n">
-        <v>660599.1472799284</v>
+        <v>660251.768025571</v>
       </c>
       <c r="J6" t="n">
-        <v>484175.9280873353</v>
+        <v>483828.5488329781</v>
       </c>
       <c r="K6" t="n">
-        <v>660599.1472799282</v>
+        <v>660251.7680255715</v>
       </c>
       <c r="L6" t="n">
-        <v>660599.1472799282</v>
+        <v>660251.7680255714</v>
       </c>
       <c r="M6" t="n">
-        <v>536390.6365718696</v>
+        <v>536043.2573175128</v>
       </c>
       <c r="N6" t="n">
-        <v>660599.1472799284</v>
+        <v>660251.7680255716</v>
       </c>
       <c r="O6" t="n">
-        <v>660599.1472799282</v>
+        <v>660251.7680255717</v>
       </c>
       <c r="P6" t="n">
-        <v>660599.1472799286</v>
+        <v>660251.7680255714</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.337298401867845e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.337298401867845e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.337298401867845e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.337298401867845e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.337298401867845e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.337298401867845e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26965,14 +26965,14 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>990.2318361245871</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>990.2318361245868</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.337298401867845e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.337298401867845e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>16.73665413220891</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>57.01149196972894</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>19.88721985928456</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>75.30176537689294</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>48.19472341080751</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>10.9824791725153</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>69.38177405467981</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>113.9539220428401</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>83.41748786219279</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>167.9222218018214</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>17.64056718375409</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.670267707365205e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29994,16 +29994,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.272339087573087e-15</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
-        <v>211.5147800288493</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>629.0082733147303</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32551,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>698.8508668798645</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>268.6704608606964</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34210,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,10 +34792,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
-        <v>77.5403726145191</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>490.4538935348562</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>159.048271228012</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243153</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>556.7168329578461</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3772271.951658572</v>
+        <v>3774032.481961357</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>13.62152856464951</v>
       </c>
       <c r="G2" t="n">
-        <v>397.0475158885861</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -834,10 +834,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>59.66385641544551</v>
       </c>
       <c r="I4" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>333.7356466614543</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>27.45797858609773</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>60.46179076613138</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.90975838011589</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.03250833502987</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>119.6760079449695</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.8757728051418</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>212.4076860934771</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>146.7151441592118</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>123.9815576456784</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581641</v>
       </c>
     </row>
     <row r="38">
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>19.91555826189057</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1920.409918978289</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C2" t="n">
-        <v>1551.447402037877</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D2" t="n">
-        <v>1193.181703431127</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E2" t="n">
-        <v>1193.181703431127</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F2" t="n">
-        <v>782.1957986415193</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>2307.009759042411</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940985</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117053</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>283.209303713795</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521274</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>770.1842990371763</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>411.9186004304258</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4795,22 +4795,22 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2636.076575092838</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2636.076575092838</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.6820060902423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>517.7458231623355</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>411.2797076961342</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>296.7882229101285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5275,19 +5275,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5372,10 +5372,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>929.7309773356194</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5840,10 +5840,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5889,19 +5889,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6071,13 +6071,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
         <v>1577.52840832642</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032295</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6308,13 +6308,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
         <v>1577.52840832642</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>365.9405071576786</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>219.0505596597682</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>219.0505596597682</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6791,13 +6791,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,28 +6925,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7025,10 +7025,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,16 +7493,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7739,7 +7739,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>113.9333885650331</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>20.61870490125435</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.708880546953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>13.30196929556007</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>139.4693302300323</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>16.31315520054551</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649986.8875070913</v>
+        <v>649986.8875070912</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055056</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.777757709</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26426,7 +26426,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670476</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670437</v>
@@ -26438,16 +26438,16 @@
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
         <v>5067.592601670437</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93901.78183461635</v>
+        <v>-93901.78183461647</v>
       </c>
       <c r="C6" t="n">
-        <v>496066.0973799278</v>
+        <v>496066.0973799281</v>
       </c>
       <c r="D6" t="n">
-        <v>496066.0973799278</v>
+        <v>496066.097379928</v>
       </c>
       <c r="E6" t="n">
-        <v>-284121.0097321373</v>
+        <v>-283808.3684032162</v>
       </c>
       <c r="F6" t="n">
-        <v>660251.768025571</v>
+        <v>660564.4093544931</v>
       </c>
       <c r="G6" t="n">
-        <v>660251.7680255715</v>
+        <v>660564.4093544924</v>
       </c>
       <c r="H6" t="n">
-        <v>660251.7680255717</v>
+        <v>660564.4093544927</v>
       </c>
       <c r="I6" t="n">
-        <v>660251.768025571</v>
+        <v>660564.409354493</v>
       </c>
       <c r="J6" t="n">
-        <v>483828.5488329781</v>
+        <v>484141.1901618997</v>
       </c>
       <c r="K6" t="n">
-        <v>660251.7680255715</v>
+        <v>660564.4093544928</v>
       </c>
       <c r="L6" t="n">
-        <v>660251.7680255714</v>
+        <v>660564.4093544926</v>
       </c>
       <c r="M6" t="n">
-        <v>536043.2573175128</v>
+        <v>536355.8986464342</v>
       </c>
       <c r="N6" t="n">
-        <v>660251.7680255716</v>
+        <v>660564.4093544928</v>
       </c>
       <c r="O6" t="n">
-        <v>660251.7680255717</v>
+        <v>660564.4093544927</v>
       </c>
       <c r="P6" t="n">
-        <v>660251.7680255714</v>
+        <v>660564.4093544929</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.337298401867845e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.337298401867845e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.337298401867845e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.337298401867845e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.337298401867845e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.337298401867845e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245874</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.337298401867845e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.337298401867845e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>393.2545171770619</v>
       </c>
       <c r="G2" t="n">
-        <v>16.73665413220891</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I4" t="n">
-        <v>75.30176537689294</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>48.19472341080751</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>198.2516768029394</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>113.9539220428401</v>
+        <v>168.1320336449676</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.9222218018214</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>4.167450853507141</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.670267707365205e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>491.597732526532</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209194</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209194</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>349.0014880820875</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
